--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LPP\Constitutional protection of FG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69480051-5662-4EC0-8C49-4C05B5B4AD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60918133-CE31-429F-8886-5881D89D0C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EBE08069-FAD6-42D4-BA91-2123E9448C27}"/>
   </bookViews>
@@ -4877,7 +4877,7 @@
   <dimension ref="A1:F234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -4889,7 +4889,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
